--- a/99.xlsx
+++ b/99.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>孙绍鹏</t>
   </si>
@@ -25,7 +25,7 @@
     <t>周洲</t>
   </si>
   <si>
-    <t>墨周洲hhh迹</t>
+    <t>2020-05-30 22:37:25: '我的'的消息:回复,弄周洲jn</t>
   </si>
   <si>
     <t>毛光亮</t>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>吴琴琴</t>
+  </si>
+  <si>
+    <t>2020-05-30 22:58:27: '我的'的消息:回复,陈军看看</t>
+  </si>
+  <si>
+    <t>孙绍</t>
+  </si>
+  <si>
+    <t>2020-05-30 22:37:25: '我的'的消息:回复,弄周洲j</t>
   </si>
 </sst>
 </file>
@@ -440,131 +449,84 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="22" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="22" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="22" customHeight="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:2" ht="22" customHeight="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:2" ht="22" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="22" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:2" ht="22" customHeight="1">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:2" ht="22" customHeight="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="1" t="s"/>
     </row>
     <row r="10" spans="1:2" ht="22" customHeight="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="22" customHeight="1">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:2" ht="22" customHeight="1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="22" customHeight="1">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="14" spans="1:2" ht="22" customHeight="1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:2" ht="22" customHeight="1">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="16" spans="1:2" ht="22" customHeight="1">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>